--- a/Assets/Resources/MasterData/EnemyData.xlsx
+++ b/Assets/Resources/MasterData/EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C3F67E-66C1-4530-84DF-7107859D08E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9B8322-20EF-4CEA-8176-091F96901D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="-12270" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="2160" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>Speed</t>
     <phoneticPr fontId="1"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -587,6 +587,216 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>110</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1">
+        <v>130</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1">
+        <v>150</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1">
+        <v>170</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1">
+        <v>190</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/MasterData/EnemyData.xlsx
+++ b/Assets/Resources/MasterData/EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9B8322-20EF-4CEA-8176-091F96901D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EEE565-0091-4B14-B449-FD0118D8FAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="2160" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="2265" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>Speed</t>
     <phoneticPr fontId="1"/>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>BasicTracking</t>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Norm</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -432,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -624,25 +632,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
         <v>30</v>
-      </c>
-      <c r="F6" s="1">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1">
-        <v>110</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>13</v>
@@ -654,30 +662,30 @@
         <v>15</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="E7" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>13</v>
@@ -689,30 +697,30 @@
         <v>15</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>13</v>
@@ -724,30 +732,30 @@
         <v>15</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="E9" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>13</v>
@@ -759,42 +767,7 @@
         <v>15</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1">
-        <v>190</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/EnemyData.xlsx
+++ b/Assets/Resources/MasterData/EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EEE565-0091-4B14-B449-FD0118D8FAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91136CB5-6710-4D5E-BC3E-EFAAB3A5946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="2265" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Speed</t>
     <phoneticPr fontId="1"/>
@@ -156,10 +156,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -443,7 +444,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -498,19 +499,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
@@ -527,25 +528,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E3" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -557,218 +558,86 @@
         <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1">
-        <v>70</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1">
-        <v>90</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1">
-        <v>70</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1">
-        <v>90</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Resources/MasterData/EnemyData.xlsx
+++ b/Assets/Resources/MasterData/EnemyData.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91136CB5-6710-4D5E-BC3E-EFAAB3A5946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A560C8-786F-453F-B6B9-0B77F5E39935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="2580" windowWidth="23235" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
+    <sheet name="reference" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Speed</t>
     <phoneticPr fontId="1"/>
@@ -93,6 +103,9 @@
   <si>
     <t>Norm</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
@@ -156,11 +169,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -441,15 +453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4:K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
@@ -493,7 +505,8 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>0</v>
+        <f>VLOOKUP(B2,reference!A:B,2,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -528,10 +541,11 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>1</v>
+        <f>VLOOKUP(B3,reference!A:B,2,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -560,88 +574,54 @@
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{918110B0-0E6E-43A9-9B02-352B9CEA0C82}">
+          <x14:formula1>
+            <xm:f>reference!$B:$B</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6433F01E-84F2-460A-8316-131C77615151}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Resources/MasterData/EnemyData.xlsx
+++ b/Assets/Resources/MasterData/EnemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\DeepBlind\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A560C8-786F-453F-B6B9-0B77F5E39935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF13D428-B2A8-43EC-B9AF-392571B9D5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="2580" windowWidth="23235" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BasicSeach</t>
-  </si>
-  <si>
     <t>BasicVigilance</t>
   </si>
   <si>
@@ -106,6 +103,10 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>BasicSearch</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -456,7 +457,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K116"/>
+      <selection activeCell="H3" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -527,13 +528,13 @@
         <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>9</v>
@@ -545,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -563,16 +564,16 @@
         <v>90</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -606,7 +607,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/Assets/Resources/MasterData/EnemyData.xlsx
+++ b/Assets/Resources/MasterData/EnemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF13D428-B2A8-43EC-B9AF-392571B9D5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4F3B6A-6715-440D-A5AB-510843F6C0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>Speed</t>
     <phoneticPr fontId="1"/>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H2:H3"/>
+      <selection activeCell="A10" sqref="A10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -576,6 +576,294 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <f>VLOOKUP(B4,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <f>VLOOKUP(B5,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <f>VLOOKUP(B6,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>90</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <f>VLOOKUP(B7,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <f>VLOOKUP(B8,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1">
+        <v>90</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <f>VLOOKUP(B9,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <f>VLOOKUP(B10,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>90</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <f>VLOOKUP(B11,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1">
+        <v>90</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -587,7 +875,7 @@
           <x14:formula1>
             <xm:f>reference!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>B2:B11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Assets/Resources/MasterData/EnemyData.xlsx
+++ b/Assets/Resources/MasterData/EnemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\DeepBlind\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4F3B6A-6715-440D-A5AB-510843F6C0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06968DE4-A33D-4C90-9EF8-851513C80298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Speed</t>
     <phoneticPr fontId="1"/>
@@ -454,18 +454,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:K11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,10 +528,10 @@
         <v>25</v>
       </c>
       <c r="F2" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -558,10 +564,10 @@
         <v>25</v>
       </c>
       <c r="F3" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -594,10 +600,10 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -630,10 +636,10 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -645,222 +651,6 @@
         <v>14</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <f>VLOOKUP(B6,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1">
-        <v>90</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <f>VLOOKUP(B7,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1">
-        <v>90</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <f>VLOOKUP(B8,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1">
-        <v>90</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <f>VLOOKUP(B9,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1">
-        <v>90</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <f>VLOOKUP(B10,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1">
-        <v>90</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <f>VLOOKUP(B11,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1">
-        <v>90</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -875,7 +665,7 @@
           <x14:formula1>
             <xm:f>reference!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B11</xm:sqref>
+          <xm:sqref>B2:B5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Assets/Resources/MasterData/EnemyData.xlsx
+++ b/Assets/Resources/MasterData/EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06968DE4-A33D-4C90-9EF8-851513C80298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A443B64-F6F8-4B3D-A307-F6224ED79B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
